--- a/data/dataThongtinhanghoaThayThe_case1.xlsx
+++ b/data/dataThongtinhanghoaThayThe_case1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Soluong</t>
   </si>
@@ -47,13 +47,25 @@
     <t>Hàng hóa</t>
   </si>
   <si>
-    <t>Máy tính Lenovo 1102</t>
-  </si>
-  <si>
     <t>Cái</t>
   </si>
   <si>
     <t>Xoa</t>
+  </si>
+  <si>
+    <t>Điện thoại sam sung galaxy a10</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>Máy giặt Panasonic 210</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -420,21 +432,37 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>20000</v>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
